--- a/чеклист01.xlsx
+++ b/чеклист01.xlsx
@@ -506,15 +506,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
